--- a/Manual Project Test Cases.xlsx
+++ b/Manual Project Test Cases.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Login Logout TC" sheetId="3" r:id="rId2"/>
     <sheet name="Searchbar TC" sheetId="4" r:id="rId3"/>
     <sheet name="Panel TC" sheetId="5" r:id="rId4"/>
+    <sheet name="Overview Stock Specific TC" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="405">
   <si>
     <t>Project Name</t>
   </si>
@@ -64,166 +65,163 @@
     <t>Test Scenario Description</t>
   </si>
   <si>
+    <t>TS_001</t>
+  </si>
+  <si>
+    <t>Login Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Login Functionality</t>
+  </si>
+  <si>
+    <t>TS_002</t>
+  </si>
+  <si>
+    <t>Logout Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Logout Functionality</t>
+  </si>
+  <si>
+    <t>TS_003</t>
+  </si>
+  <si>
+    <t>Searchbar Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Searching any Stock / Fund of Searchbar Functionality</t>
+  </si>
+  <si>
+    <t>TS_004</t>
+  </si>
+  <si>
+    <t>Panel of Stock Specific Details Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Panel of Stock Specific Details Functionality</t>
+  </si>
+  <si>
+    <t>TS_005</t>
+  </si>
+  <si>
+    <t>Overview Tab of Stock Specific Details Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Overview Tab of Stock Specific Details Functionality</t>
+  </si>
+  <si>
+    <t>TS_006</t>
+  </si>
+  <si>
+    <t>Financials Tab of Stock Specific Details Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Financials Tab of Stock Specific Details Functionality</t>
+  </si>
+  <si>
+    <t>TS_007</t>
+  </si>
+  <si>
+    <t>Peers Tab of Stock Specific Details Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Peers Tab of Stock Specific Details Functionality</t>
+  </si>
+  <si>
+    <t>TS_008</t>
+  </si>
+  <si>
+    <t>Holdings Tab of Stock Specific Details Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Holdings Tab of Stock Specific Details Functionality</t>
+  </si>
+  <si>
+    <t>TS_009</t>
+  </si>
+  <si>
+    <t>Tickertape Dropdown Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Tickertape Dropdown Functionality</t>
+  </si>
+  <si>
+    <t>TS_010</t>
+  </si>
+  <si>
+    <t>Stocks Tab of Tickertape Dropdown Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Stocks Tab of Tickertape Dropdown Functionality</t>
+  </si>
+  <si>
+    <t>TS_011</t>
+  </si>
+  <si>
+    <t>MFs Tab of Tickertape Dropdown Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of MFs Tab of Tickertape Dropdown Functionality</t>
+  </si>
+  <si>
+    <t>TS_012</t>
+  </si>
+  <si>
+    <t>Stock Screener of Tickertape Dropdown Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Stock Screener of Tickertape Dropdown Functionality</t>
+  </si>
+  <si>
+    <t>TS_013</t>
+  </si>
+  <si>
+    <t>MF Screener of Tickertape Dropdown Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of MF Screener of Tickertape Dropdown Functionality</t>
+  </si>
+  <si>
+    <t>TS_014</t>
+  </si>
+  <si>
+    <t>Market Mood of Tickertape Dropdown Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Market Mood of Tickertape Dropdown Functionality</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario </t>
+  </si>
+  <si>
+    <t>Test Case Title</t>
+  </si>
+  <si>
+    <t>Pre-conditions</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result (ER)</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>Priority</t>
-  </si>
-  <si>
-    <t>Number of Test Cases</t>
-  </si>
-  <si>
-    <t>TS_001</t>
-  </si>
-  <si>
-    <t>Login Functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Login Functionality</t>
-  </si>
-  <si>
-    <t>TS_002</t>
-  </si>
-  <si>
-    <t>Logout Functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Logout Functionality</t>
-  </si>
-  <si>
-    <t>TS_003</t>
-  </si>
-  <si>
-    <t>Searchbar Functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Searching any Stock / Fund of Searchbar Functionality</t>
-  </si>
-  <si>
-    <t>TS_004</t>
-  </si>
-  <si>
-    <t>Panel of Stock Specific Details Functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Panel of Stock Specific Details Functionality</t>
-  </si>
-  <si>
-    <t>TS_005</t>
-  </si>
-  <si>
-    <t>Overview Tab of Stock Specific Details Functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Overview Tab of Stock Specific Details Functionality</t>
-  </si>
-  <si>
-    <t>TS_006</t>
-  </si>
-  <si>
-    <t>Financials Tab of Stock Specific Details Functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Financials Tab of Stock Specific Details Functionality</t>
-  </si>
-  <si>
-    <t>TS_007</t>
-  </si>
-  <si>
-    <t>Peers Tab of Stock Specific Details Functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Peers Tab of Stock Specific Details Functionality</t>
-  </si>
-  <si>
-    <t>TS_008</t>
-  </si>
-  <si>
-    <t>Holdings Tab of Stock Specific Details Functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Holdings Tab of Stock Specific Details Functionality</t>
-  </si>
-  <si>
-    <t>TS_009</t>
-  </si>
-  <si>
-    <t>Tickertape Dropdown Functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Tickertape Dropdown Functionality</t>
-  </si>
-  <si>
-    <t>TS_010</t>
-  </si>
-  <si>
-    <t>Stocks Tab of Tickertape Dropdown Functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Stocks Tab of Tickertape Dropdown Functionality</t>
-  </si>
-  <si>
-    <t>TS_011</t>
-  </si>
-  <si>
-    <t>MFs Tab of Tickertape Dropdown Functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of MFs Tab of Tickertape Dropdown Functionality</t>
-  </si>
-  <si>
-    <t>TS_012</t>
-  </si>
-  <si>
-    <t>Stock Screener of Tickertape Dropdown Functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Stock Screener of Tickertape Dropdown Functionality</t>
-  </si>
-  <si>
-    <t>TS_013</t>
-  </si>
-  <si>
-    <t>MF Screener of Tickertape Dropdown Functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of MF Screener of Tickertape Dropdown Functionality</t>
-  </si>
-  <si>
-    <t>TS_014</t>
-  </si>
-  <si>
-    <t>Market Mood of Tickertape Dropdown Functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Market Mood of Tickertape Dropdown Functionality</t>
-  </si>
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Scenario </t>
-  </si>
-  <si>
-    <t>Test Case Title</t>
-  </si>
-  <si>
-    <t>Pre-conditions</t>
-  </si>
-  <si>
-    <t>Test Steps</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>Expected Result (ER)</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Comments</t>
   </si>
   <si>
     <t>Type of Test Case</t>
@@ -888,16 +886,583 @@
     <t>To test current growth percentage of the Stock / Fund is display with Green or Red Color w.r.t. its profit or loss as per previous day stock price or not on Panel.</t>
   </si>
   <si>
+    <t>1. Web Application (https://www.tickertape.in/) should be open in any Browser.
+2. User should be looged in.
+3. Stock / Fund Specific Details Page should be open.</t>
+  </si>
+  <si>
+    <t>1. Observe Panel Section.</t>
+  </si>
+  <si>
     <t>Current growth percentage of the Stock / Fund should be display with Green or Red Color w.r.t. its profit or loss as per previous day stock price on Panel.</t>
   </si>
   <si>
     <t>TC_PL_004</t>
   </si>
   <si>
+    <t>To test Profit or Loss Percentage &amp; its color code of  Stock / Fund Value is calculated w.r.t. Previous Market Working Day &amp; Current Market Working Day or not.</t>
+  </si>
+  <si>
+    <t>Profit or Loss Percentage &amp; its color code of  Stock / Fund Value should be calculated w.r.t. Previous Market Working Day &amp; Current Market Working Day.</t>
+  </si>
+  <si>
+    <t>TC_PL_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test During Market Day &amp; Time, Stock / Fund Value is vary or not w.r.t. its Growth Percentage &amp; with its Color Codes. </t>
+  </si>
+  <si>
+    <t>1. Web Application (https://www.tickertape.in/) should be open in any Browser.
+2. User should be looged in.
+3. Stock / Fund Specific Details Page should be open.
+4. Current Time &amp; Current Day should be Market Time &amp; Market Day respectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During Market Day &amp; Time, Stock / Fund Value should be vary w.r.t. its Growth Percentage &amp; with its Color Codes. </t>
+  </si>
+  <si>
+    <t>TC_PL_006</t>
+  </si>
+  <si>
     <t>To test In Panel &gt;&gt; Scorecard Section Performance, Valuation, Growth, Profitability, Entry Point &amp; Leg Flags  Cards with their Scores such as High or Avg or Low with colors as Red or Orange or Green respectively are present or not.</t>
   </si>
   <si>
     <t>In Panel &gt;&gt; Scorecard Section Performance, Valuation, Growth, Profitability, Entry Point &amp; Leg Flags  Cards with their Scores such as High or Avg or Low with colors as Red or Orange or Green respectively should be present.</t>
+  </si>
+  <si>
+    <t>TC_PL_007</t>
+  </si>
+  <si>
+    <t>To test After Click on Add to Watchlist Icon, Watchlist Pop-up Window with + Create Equity Watchlist &amp; Done Buttons will display or not.</t>
+  </si>
+  <si>
+    <t>1. Web Application (https://www.tickertape.in/) should be open in any Browser.
+2. User should be looged in.
+3. Stock Specific Details Page should be open.
+4. No any Watchlists should be created.</t>
+  </si>
+  <si>
+    <t>1. Observe Panel Section.
+2. Cilck on Add to Watchlist Icon.</t>
+  </si>
+  <si>
+    <t>After Click on Add to Watchlist Icon, Watchlist Pop-up Window with + Create Equity Watchlist &amp; Done Buttons should be display.</t>
+  </si>
+  <si>
+    <t>TC_PL_008</t>
+  </si>
+  <si>
+    <t>To test After Click on Add to Watchlist Icon, Watchlist Pop-up Window with + Create MF Watchlist &amp; Done Buttons will display or not.</t>
+  </si>
+  <si>
+    <t>1. Web Application (https://www.tickertape.in/) should be open in any Browser.
+2. User should be looged in.
+3. Fund Specific Details Page should be open.
+4. No any Watchlists should be created.</t>
+  </si>
+  <si>
+    <t>Fund Name : ICICI Pru Liquid Fund</t>
+  </si>
+  <si>
+    <t>After Click on Add to Watchlist Icon, Watchlist Pop-up Window with + Create MF Watchlist &amp; Done Buttons should be display.</t>
+  </si>
+  <si>
+    <t>TC_PL_009</t>
+  </si>
+  <si>
+    <t>To test Done Button of Watchlist Pop-up Window is by default disable or not.</t>
+  </si>
+  <si>
+    <t>1. Web Application (https://www.tickertape.in/) should be open in any Browser.
+2. User should be looged in.
+3. Stock / Fund Specific Details Page should be open.
+4. No any Watchlists should be created.</t>
+  </si>
+  <si>
+    <t>1. Observe Panel Section.
+2. Cilck on Add to Watchlist Icon.
+3. Hover on Mouse Done Button.</t>
+  </si>
+  <si>
+    <t>Done Button of Watchlist Pop-up Window should be disable by default.</t>
+  </si>
+  <si>
+    <t>TC_PL_010</t>
+  </si>
+  <si>
+    <t>To test After click on + Create Equity Watchlist Button of Watchlist Pop-up Window, New Pop-up of Name your watchlist display or not with Cancel and Create &amp; Add Buttons &amp; Cancel Icon at the Right-top of the Pop-up.</t>
+  </si>
+  <si>
+    <t>1. Observe Panel Section.
+2. Cilck on Add to Watchlist Icon.
+3. Click on + Create Equity Watchlist Button.</t>
+  </si>
+  <si>
+    <t>After click on + Create Equity Watchlist Button of Watchlist Pop-up Window, New Pop-up of Name your watchlist should be display with Cancel and Create &amp; Add Buttons &amp; Cancel Icon at the Right-top of the Pop-up.</t>
+  </si>
+  <si>
+    <t>TC_PL_011</t>
+  </si>
+  <si>
+    <t>To test On the Name your watchlist Pop-up Window, a Alphanumeric Field is present or not for giving any Name to the Watchlist.</t>
+  </si>
+  <si>
+    <t>On the Name your watchlist Pop-up Window, a Alphanumeric Field should be present for giving any Name to the Watchlist.</t>
+  </si>
+  <si>
+    <t>TC_PL_012</t>
+  </si>
+  <si>
+    <t>To test On the Name your watchlist Pop-up Window, a Emoji Dropdown Field is present or not with Alphanumeric Field for selecting any Emoji to the Watchlist.</t>
+  </si>
+  <si>
+    <t>On the Name your watchlist Pop-up Window, a Emoji Dropdown Field should be present with Alphanumeric Field for selecting any Emoji to the Watchlist.</t>
+  </si>
+  <si>
+    <t>TC_PL_013</t>
+  </si>
+  <si>
+    <t>To test Into the Alphanumeric Field of Name your watchlist Pop-up Window, a default name for Watchlist as "Equity Watchlist" is present or not.</t>
+  </si>
+  <si>
+    <t>To test Into the Alphanumeric Field of Name your watchlist Pop-up Window, a default name for Watchlist as "Equity Watchlist" should be present.</t>
+  </si>
+  <si>
+    <t>TC_PL_014</t>
+  </si>
+  <si>
+    <t>To test Into the Alphanumeric Field of Name your watchlist Pop-up Window, a default name for Watchlist as "Mutual Fund Watchlist" is present or not.</t>
+  </si>
+  <si>
+    <t>1. Observe Panel Section.
+2. Cilck on Add to Watchlist Icon.
+3. Click on + Create MF Watchlist Button.</t>
+  </si>
+  <si>
+    <t>To test Into the Alphanumeric Field of Name your watchlist Pop-up Window, a default name for Watchlist as "Mutual Fund Watchlist" should be present.</t>
+  </si>
+  <si>
+    <t>TC_PL_015</t>
+  </si>
+  <si>
+    <t>To test User is able to Enter Alphanumeric Data into the Alphanumeric Field of Name your watchlist Pop-up Window or not.</t>
+  </si>
+  <si>
+    <t>1. Observe Panel Section.
+2. Cilck on Add to Watchlist Icon.
+3. Click on + Create Equity Watchlist Button.
+4. Click on Alphanumeric Field of Name your watchlist Pop-up Window.</t>
+  </si>
+  <si>
+    <t>User should be able to Enter Alphanumeric Data into the Alphanumeric Field of Name your watchlist Pop-up Window.</t>
+  </si>
+  <si>
+    <t>TC_PL_016</t>
+  </si>
+  <si>
+    <t>To test On the Name your watchlist Pop-up Window, a Emoji Dropdown Field has sectorwise Emojis i.e. People, Markets, Sectors, Nature, Numbers etc with 10 Different Emojis per Sector or not.</t>
+  </si>
+  <si>
+    <t>1. Observe Panel Section.
+2. Cilck on Add to Watchlist Icon.
+3. Click on + Create Equity Watchlist Button.
+4. Click on Emoji Dropdown.</t>
+  </si>
+  <si>
+    <t>On the Name your watchlist Pop-up Window, a Emoji Dropdown Field should have sectorwise Emojis i.e. People, Markets, Sectors, Nature, Numbers etc with 10 Different Emojis per Sector.</t>
+  </si>
+  <si>
+    <t>TC_PL_017</t>
+  </si>
+  <si>
+    <t>To test On the Name your watchlist Pop-up Window, the Text field is accept Alphanumeric Data or Not.</t>
+  </si>
+  <si>
+    <t>1. Observe Panel Section.
+2. Cilck on Add to Watchlist Icon.
+3. Click on + Create Equity Watchlist Button.
+4. Enter Alphanumeric Data into the Name your watchlist Pop-up Window Text field.</t>
+  </si>
+  <si>
+    <t>Stock Name : Aditya Birla Capital Ltd
+Watchlist Name : 456^**&amp;gvheg</t>
+  </si>
+  <si>
+    <t>On the Name your watchlist Pop-up Window, the Text field should be accept Alphanumeric Data.</t>
+  </si>
+  <si>
+    <t>TC_PL_018</t>
+  </si>
+  <si>
+    <t>To test On the Name your watchlist Pop-up Window, the Text field is accept Data till 40 Characters or not.</t>
+  </si>
+  <si>
+    <t>1. Observe Panel Section.
+2. Cilck on Add to Watchlist Icon.
+3. Click on + Create Equity Watchlist Button.
+4. Enter 40 Charactered Data into the Name your watchlist Pop-up Window Text field.</t>
+  </si>
+  <si>
+    <t>Stock Name : Aditya Birla Capital Ltd
+Watchlist Name : 123456789012345678901231237895fgh^&amp;*7885</t>
+  </si>
+  <si>
+    <t>On the Name your watchlist Pop-up Window, the Text field should be accept Data till 40 Characters.</t>
+  </si>
+  <si>
+    <t>TC_PL_019</t>
+  </si>
+  <si>
+    <t>To test On the Name your watchlist Pop-up Window, the Text field is accept Data till 41 Characters or not.</t>
+  </si>
+  <si>
+    <t>1. Observe Panel Section.
+2. Cilck on Add to Watchlist Icon.
+3. Click on + Create Equity Watchlist Button.
+4. Enter 41 Charactered Data into the Name your watchlist Pop-up Window Text field.</t>
+  </si>
+  <si>
+    <t>On the Name your watchlist Pop-up Window, User should not be able to Enter the Data more than 40 Characters.</t>
+  </si>
+  <si>
+    <t>TC_PL_020</t>
+  </si>
+  <si>
+    <t>To test On the Name your watchlist Pop-up Window, After Click on Cancel Button, the Watchlist creation Process will aborted or not.</t>
+  </si>
+  <si>
+    <t>1. Observe Panel Section.
+2. Cilck on Add to Watchlist Icon.
+3. Click on + Create Equity Watchlist Button.
+4. Enter Watchlist Name.
+5. Click on Cancel Button.</t>
+  </si>
+  <si>
+    <t>Stock Name : Aditya Birla Capital Ltd
+Watchlist Name : Watchlist 1</t>
+  </si>
+  <si>
+    <t>On the Name your watchlist Pop-up Window, After Click on Cancel Button, the Watchlist creation Process should be aborted.</t>
+  </si>
+  <si>
+    <t>TC_PL_021</t>
+  </si>
+  <si>
+    <t>To test On the Name your watchlist Pop-up Window, After Click on Cancel Icon, the Name your watchlist Pop-up Window will get closed or not.</t>
+  </si>
+  <si>
+    <t>1. Observe Panel Section.
+2. Cilck on Add to Watchlist Icon.
+3. Click on + Create Equity Watchlist Button.
+4. Click on Cancel Icon.</t>
+  </si>
+  <si>
+    <t>On the Name your watchlist Pop-up Window, After Click on Cancel Icon, the Name your watchlist Pop-up Window should get closed.</t>
+  </si>
+  <si>
+    <t>TC_PL_022</t>
+  </si>
+  <si>
+    <t>To test On the Name your watchlist Pop-up Window, After Click on Create &amp; Add Button, the Watchlist will be created with that Stock / Fund &amp; the Information Message about that will be display or not.</t>
+  </si>
+  <si>
+    <t>1. Observe Panel Section.
+2. Cilck on Add to Watchlist Icon.
+3. Click on + Create Equity Watchlist Button.
+4. Enter Watchlist Name.
+5. Click on Create &amp; Add Button.
+Stock / Fund will add in Watchlist.
+6. Click on Account Dropdown at Top-right Corner.
+7. Click on Watchlist Tab Option.</t>
+  </si>
+  <si>
+    <t>1. On the Name your watchlist Pop-up Window, After Click on Create &amp; Add Button, the Watchlist should get be created with that Stock / Fund. 
+2. The Information Message as "Aditya Birla Capital Ltd added to Watchlist 1 " should be display.
+3. Added to Watchlist Icon should become Black in Color.
+4. Aditya Birla Capital Ltd should be display on Watchlist Page.</t>
+  </si>
+  <si>
+    <t>TC_PL_023</t>
+  </si>
+  <si>
+    <t>To test After Click on Added to Watchlist Icon, User can remove the Stock / Fund from the Watchlist or Not.</t>
+  </si>
+  <si>
+    <t>1. Web Application (https://www.tickertape.in/) should be open in any Browser.
+2. User should be looged in.
+3. Stock / Fund Specific Details Page should be open.
+4. Aditya Birla Capital Ltd Stock should be in Watchlist 1.</t>
+  </si>
+  <si>
+    <t>1. Click on Add to Watchlist Icon.
+2. Untick the Checkbox of Watchlist 1.
+3. Click on Done Button.</t>
+  </si>
+  <si>
+    <t>1. That Stock / Fund should get remove from the Watchlist.
+2. Information Message as "Aditya Birla Capital Ltd updated in Watchlist 1" should be display.
+3. Add to Watchlist Icon should become in default color.
+4. Aditya Birla Capital Ltd Stock with Watchlist 1 should get remove from Watchlist Tab Page also.</t>
+  </si>
+  <si>
+    <t>TC_OT_001</t>
+  </si>
+  <si>
+    <t>To test After Enter any stock Name / Fund Name in Searchbar Field &amp; Pressing Enter, that Stock / Fund Specific Details with Overview, Forecasts, Financials, Peers, Holdings, Events, News Tabs are display or not.</t>
+  </si>
+  <si>
+    <t>1. Web Application (https://www.tickertape.in/) should be open in any Browser.
+2. User should be looged in.
+3. User should not be Subscribe for Tickertape Pro Plan.</t>
+  </si>
+  <si>
+    <t>After Enter any stock Name / Fund Name in Searchbar Field &amp; Pressing Enter, that Stock / Fund Specific Details with Overview, Forecasts, Financials, Peers, Holdings, Events, News Tabs should be display.</t>
+  </si>
+  <si>
+    <t>TC_OT_002</t>
+  </si>
+  <si>
+    <t>To test After Enter any stock Name / Fund Name in Searchbar Field &amp; Pressing Enter, Overview Details of  that Specific Stock / Fund are display by default or not.</t>
+  </si>
+  <si>
+    <t>1. After Enter any stock Name / Fund Name in Searchbar Field &amp; Pressing Enter, Overview Details of  that Specific Stock / Fund should be display by default.
+2. Because of Overview Tab is selected, that Tab Name Colour should be highlighted in blue color.</t>
+  </si>
+  <si>
+    <t>TC_OT_003</t>
+  </si>
+  <si>
+    <t>To test In Overview Tab, the Sections viz. Price Chart, Key Metrics, Forecast &amp; Ratings, Company Profile, Peers are Present or not.</t>
+  </si>
+  <si>
+    <t>In Overview Tab, the Sections viz. Price Chart, Key Metrics, Forecast &amp; Ratings, Company Profile, Peers should be Present.</t>
+  </si>
+  <si>
+    <t>TC_OT_004</t>
+  </si>
+  <si>
+    <t>To test In Price Chart Section, Tabs viz. 1D, 1W, 1M, 1Y, 5Y, Max, SIP are present or not.</t>
+  </si>
+  <si>
+    <t>In Price Chart Section, Tabs viz. 1D, 1W, 1M, 1Y, 5Y, Max, SIP should be present.</t>
+  </si>
+  <si>
+    <t>TC_OT_005</t>
+  </si>
+  <si>
+    <t>To test In Price Chart Section, 1D Tab should has selected by default or not.</t>
+  </si>
+  <si>
+    <t>1. In Price Chart Section, 1D Tab should should be selected by default.
+2. Because of 1D Tab is selected, This Tab should be in Black Color.</t>
+  </si>
+  <si>
+    <t>TC_OT_006</t>
+  </si>
+  <si>
+    <t>To test In Price Chart Section, While Switching the tabs the Color of the Selected Tab is changes to Black or not.</t>
+  </si>
+  <si>
+    <t>1. Click into Searchbar Field.
+2. Enter any Stock / Fund name in it.
+3. Press Enter.
+4. Switch the Price Chart Section Tabs.</t>
+  </si>
+  <si>
+    <t>In Price Chart Section, While Switching the tabs the Color of the Selected Tab should be change to Black.</t>
+  </si>
+  <si>
+    <t>TC_OT_007</t>
+  </si>
+  <si>
+    <t>To test Chart is display as Price vs. Duration  w.r.t. Selected Tab or not.</t>
+  </si>
+  <si>
+    <t>Chart should be display as Price vs. Duration  w.r.t. Selected Tab.</t>
+  </si>
+  <si>
+    <t>TC_OT_008</t>
+  </si>
+  <si>
+    <t>To test In Price Chart Section, Chart Curve &amp; the Data of High, Low &amp; Returns Fields is display w.r.t. selected Tab or not.</t>
+  </si>
+  <si>
+    <t>1. Click into Searchbar Field.
+2. Enter any Stock / Fund name in it.
+3. Press Enter.
+4. Switch the Price Chart Section Tabs from 1D to 1W, 1M, 1Y, 5Y, Max.
+5. Observe the Chart Curve &amp; the Data of High, Low Fields.</t>
+  </si>
+  <si>
+    <t>1. In Price Chart Section, Chart Curve &amp; the Data of High, Low &amp; Returns Fields should be display w.r.t. selected Tab.
+2. Data of High Field is display w.r.t. Highest Value as per selected Tab.
+3. Data of Low Field is display w.r.t. Lowest Value as per selected Tab.</t>
+  </si>
+  <si>
+    <t>TC_OT_009</t>
+  </si>
+  <si>
+    <t>To Test In Price Chart Section, Returns Data is Calculated w.r.t. Current Price &amp; Previous Price as per selected Tab with Green or Red Color or not.</t>
+  </si>
+  <si>
+    <t>1. Click into Searchbar Field.
+2. Enter any Stock / Fund name in it.
+3. Press Enter.
+4. Switch the Price Chart Section Tabs from 1D to 1W, 1M, 1Y, 5Y, Max.
+5. Observe the Chart Curve &amp; the Data of Returns Field.</t>
+  </si>
+  <si>
+    <t>1. Stock Name : Aditya Birla Capital Ltd
+2. Returns =  
+[ ( Current Price - Previous Price ) X 100 ] / Previous Price</t>
+  </si>
+  <si>
+    <t>1. In Price Chart Section, Returns Data should be Calculated w.r.t. Current Price &amp; Previous Price as per selected Tab.
+2. For Positive Returns, it should be display in Green Color with % sign.
+3. For Negative Returns, Modulus of the Returns should be display in Red Color with % sign.</t>
+  </si>
+  <si>
+    <t>TC_OT_010</t>
+  </si>
+  <si>
+    <t>To test When 1D Tab is selected, Chart &amp; Values of High, Low &amp; Returns are display w.r.t. Current Market Day or not.</t>
+  </si>
+  <si>
+    <t>1. Click into Searchbar Field.
+2. Enter any Stock / Fund name in it.
+3. Press Enter.
+4. Observe the Chart Curve &amp; the Data of High, Low &amp; Returns Fields.</t>
+  </si>
+  <si>
+    <t>When 1D Tab is selected, Chart &amp; Values of High, Low &amp; Returns should be display w.r.t. Current Market Day.</t>
+  </si>
+  <si>
+    <t>TC_OT_011</t>
+  </si>
+  <si>
+    <t>To test When 1W Tab is selected, Chart &amp; Values of High, Low &amp; Returns are display w.r.t. Current Market Week or not.</t>
+  </si>
+  <si>
+    <t>1. Click into Searchbar Field.
+2. Enter any Stock / Fund name in it.
+3. Press Enter.
+4. Switch on 1W Tab.
+5. Observe the Chart Curve &amp; the Data of High, Low &amp; Returns Fields.</t>
+  </si>
+  <si>
+    <t>When 1W Tab is selected, Chart &amp; Values of High, Low &amp; Returns should be display w.r.t. Current Market Week.</t>
+  </si>
+  <si>
+    <t>TC_OT_012</t>
+  </si>
+  <si>
+    <t>To test When 1M Tab is selected, Chart &amp; Values of High, Low &amp; Returns are display w.r.t. Current Month or not.</t>
+  </si>
+  <si>
+    <t>1. Click into Searchbar Field.
+2. Enter any Stock / Fund name in it.
+3. Press Enter.
+4. Switch on 1M Tab.
+5. Observe the Chart Curve &amp; the Data of High, Low &amp; Returns Fields.</t>
+  </si>
+  <si>
+    <t>1M Tab is selected, Chart &amp; Values of High, Low &amp; Returns should be display w.r.t. Current Month.</t>
+  </si>
+  <si>
+    <t>TC_OT_013</t>
+  </si>
+  <si>
+    <t>To test When 1Y Tab is selected, Chart &amp; Values of High, Low &amp; Returns are display w.r.t. Current Year or not.</t>
+  </si>
+  <si>
+    <t>1. Click into Searchbar Field.
+2. Enter any Stock / Fund name in it.
+3. Press Enter.
+4. Switch on 1Y Tab.
+5. Observe the Chart Curve &amp; the Data of High, Low &amp; Returns Fields.</t>
+  </si>
+  <si>
+    <t>When 1Y Tab is selected, Chart &amp; Values of High, Low &amp; Returns should be display w.r.t. Current Year.</t>
+  </si>
+  <si>
+    <t>TC_OT_014</t>
+  </si>
+  <si>
+    <t>To test When 5Y Tab is selected, Chart &amp; Values of High, Low &amp; Returns are display w.r.t. 5 Years from Current Market Day or not.</t>
+  </si>
+  <si>
+    <t>1. Click into Searchbar Field.
+2. Enter any Stock / Fund name in it.
+3. Press Enter.
+4. Switch on 5Y Tab.
+5. Observe the Chart Curve &amp; the Data of High, Low &amp; Returns Fields.</t>
+  </si>
+  <si>
+    <t>When 5Y Tab is selected, Chart &amp; Values of High, Low &amp; Returns should be display w.r.t. 5 Years from Current Market Day.</t>
+  </si>
+  <si>
+    <t>TC_OT_015</t>
+  </si>
+  <si>
+    <t>To test When Max Tab is selected, Chart &amp; Values of High, Low &amp; Returns are display w.r.t. from when the Company was registered in SBI till the Current Market Day or not.</t>
+  </si>
+  <si>
+    <t>1. Click into Searchbar Field.
+2. Enter any Stock / Fund name in it.
+3. Press Enter.
+4. Switch on Max Tab.
+5. Observe the Chart Curve &amp; the Data of High, Low &amp; Returns Fields.</t>
+  </si>
+  <si>
+    <t>Stock Name : Reliance Industries Ltd
+Time Period will display from 17 April 2000 to Current Market Date.</t>
+  </si>
+  <si>
+    <t>When Max Tab is selected, Chart &amp; Values of High, Low &amp; Returns should be display w.r.t. from when the Company was registered in SBI till the Current Market Day.</t>
+  </si>
+  <si>
+    <t>TC_OT_016</t>
+  </si>
+  <si>
+    <t>To test While hovering the Mouse on Chart, a Card is display as per Price w.r.t. Time Period Point Details as per selected Tab viz. 1D, 1W, 1M, 1Y, 5Y or Max.</t>
+  </si>
+  <si>
+    <t>1. Click into Searchbar Field.
+2. Enter any Stock / Fund name in it.
+3. Press Enter.
+4. Switch the Tabs from 1D to 1W, 1M, 1Y, 5Y or Max.
+5. Hover the Mouse on Chart Line.
+5. Observe the Card.</t>
+  </si>
+  <si>
+    <t>Stock Name : Reliance Industries Ltd</t>
+  </si>
+  <si>
+    <t>While hovering the Mouse on Chart, a Card should be display as per Price w.r.t. Time Period Point Details as per selected Tab viz. 1D, 1W, 1M, 1Y, 5Y or Max.</t>
+  </si>
+  <si>
+    <t>TC_OT_017</t>
+  </si>
+  <si>
+    <t>To test When SIP Tab is selected, Chart &amp; Fields viz. Investment, Value &amp; Returns are display or not.</t>
+  </si>
+  <si>
+    <t>1. Click into Searchbar Field.
+2. Enter any Stock / Fund name in it.
+3. Press Enter.
+4. Switch on SIP Tab.</t>
+  </si>
+  <si>
+    <t>When SIP Tab is selected, Chart &amp; Fields viz. Investment, Value &amp; Returns should be display.</t>
+  </si>
+  <si>
+    <t>TC_OT_018</t>
+  </si>
+  <si>
+    <t>To test For SIP Tab Chart, 2 Curves are display with Colours Orange &amp; Green or not.</t>
+  </si>
+  <si>
+    <t>For SIP Tab Chart, 2 Curves should be display with Colours Orange &amp; Green.</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +2182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1636,21 +2201,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1667,12 +2223,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2245,320 +2795,286 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="23" style="12" customWidth="1"/>
-    <col min="2" max="2" width="36.1428571428571" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.7142857142857" style="12" customWidth="1"/>
-    <col min="4" max="4" width="80.5714285714286" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="12"/>
+    <col min="1" max="1" width="23" style="9" customWidth="1"/>
+    <col min="2" max="2" width="36.1428571428571" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.7142857142857" style="9" customWidth="1"/>
+    <col min="4" max="4" width="80.5714285714286" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" s="11" customFormat="1" spans="1:3">
-      <c r="A2" s="13" t="s">
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" s="8" customFormat="1" spans="1:3">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" s="11" customFormat="1" ht="37.5" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="37.5" spans="1:3">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="4" s="11" customFormat="1" spans="1:3">
-      <c r="A4" s="13" t="s">
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:3">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" s="11" customFormat="1" spans="1:3">
-      <c r="A5" s="13" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" s="8" customFormat="1" spans="1:3">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" s="11" customFormat="1" spans="1:3">
-      <c r="A6" s="13" t="s">
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="1:3">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" s="11" customFormat="1"/>
-    <row r="8" s="11" customFormat="1"/>
-    <row r="9" s="11" customFormat="1" ht="75" spans="1:6">
-      <c r="A9" s="16" t="s">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" s="8" customFormat="1"/>
+    <row r="8" s="8" customFormat="1"/>
+    <row r="9" s="8" customFormat="1" spans="1:4">
+      <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="16" t="s">
+    </row>
+    <row r="10" s="8" customFormat="1" ht="56.25" spans="1:4">
+      <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" s="11" customFormat="1" ht="56.25" spans="1:6">
-      <c r="A10" s="17" t="s">
+      <c r="C10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="17" t="s">
+    </row>
+    <row r="11" s="8" customFormat="1" ht="56.25" spans="1:4">
+      <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="B11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" s="11" customFormat="1" ht="56.25" spans="1:6">
-      <c r="A11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="17" t="s">
+    </row>
+    <row r="12" s="8" customFormat="1" ht="56.25" spans="1:4">
+      <c r="A12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="B12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" s="11" customFormat="1" ht="56.25" spans="1:6">
-      <c r="A12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="17" t="s">
+    </row>
+    <row r="13" s="8" customFormat="1" ht="56.25" spans="1:4">
+      <c r="A13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="B13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" s="11" customFormat="1" ht="56.25" spans="1:6">
-      <c r="A13" s="17" t="s">
+      <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="19" t="s">
+    </row>
+    <row r="14" s="8" customFormat="1" ht="56.25" spans="1:4">
+      <c r="A14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="B14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" s="11" customFormat="1" ht="56.25" spans="1:6">
-      <c r="A14" s="17" t="s">
+      <c r="D14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="19" t="s">
+    </row>
+    <row r="15" s="8" customFormat="1" ht="56.25" spans="1:4">
+      <c r="A15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="B15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" s="11" customFormat="1" ht="56.25" spans="1:6">
-      <c r="A15" s="17" t="s">
+      <c r="D15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="19" t="s">
+    </row>
+    <row r="16" s="8" customFormat="1" ht="56.25" spans="1:4">
+      <c r="A16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="B16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" s="11" customFormat="1" ht="56.25" spans="1:6">
-      <c r="A16" s="17" t="s">
+      <c r="D16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="19" t="s">
+    </row>
+    <row r="17" s="8" customFormat="1" ht="56.25" spans="1:4">
+      <c r="A17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="B17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" s="11" customFormat="1" ht="56.25" spans="1:6">
-      <c r="A17" s="17" t="s">
+      <c r="D17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="19" t="s">
+    </row>
+    <row r="18" s="9" customFormat="1" ht="56.25" spans="1:4">
+      <c r="A18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="B18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" s="12" customFormat="1" ht="56.25" spans="1:6">
-      <c r="A18" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="21" t="s">
+    </row>
+    <row r="19" ht="56.25" spans="1:4">
+      <c r="A19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="B19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" ht="56.25" spans="1:6">
-      <c r="A19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="21" t="s">
+    </row>
+    <row r="20" ht="56.25" spans="1:4">
+      <c r="A20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="B20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" ht="56.25" spans="1:6">
-      <c r="A20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="21" t="s">
+    </row>
+    <row r="21" ht="56.25" spans="1:4">
+      <c r="A21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="B21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" ht="56.25" spans="1:6">
-      <c r="A21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="21" t="s">
+    </row>
+    <row r="22" ht="56.25" spans="1:4">
+      <c r="A22" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="B22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" ht="56.25" spans="1:6">
-      <c r="A22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="21" t="s">
+    </row>
+    <row r="23" ht="56.25" spans="1:4">
+      <c r="A23" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="B23" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" ht="56.25" spans="1:6">
-      <c r="A23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2582,787 +3098,787 @@
   <sheetPr/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="9" customWidth="1"/>
-    <col min="2" max="2" width="17" style="9" customWidth="1"/>
-    <col min="3" max="3" width="29.7904761904762" style="9" customWidth="1"/>
-    <col min="4" max="4" width="36.9333333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="41.4285714285714" style="9" customWidth="1"/>
-    <col min="6" max="6" width="20.7047619047619" style="9" customWidth="1"/>
-    <col min="7" max="7" width="33.4666666666667" style="9" customWidth="1"/>
-    <col min="8" max="8" width="15" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="9.14285714285714" style="9" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.4285714285714" style="9" customWidth="1"/>
-    <col min="13" max="13" width="9.14285714285714" style="9"/>
-    <col min="14" max="14" width="16.7809523809524" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="9.14285714285714" style="9"/>
+    <col min="1" max="1" width="8.57142857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.7904761904762" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.9333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7047619047619" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.4666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="9.14285714285714" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.4285714285714" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.14285714285714" style="2"/>
+    <col min="14" max="14" width="16.7809523809524" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="56.25" spans="1:12">
       <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="131.25" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="150" spans="1:12">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="8"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="93.75" spans="1:12">
       <c r="A3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="93.75" spans="1:12">
       <c r="A4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="8"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="131.25" spans="1:12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="112.5" spans="1:12">
       <c r="A5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="93.75" spans="1:12">
+      <c r="A6" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="131.25" spans="1:12">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="131.25" spans="1:12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="112.5" spans="1:12">
       <c r="A7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="131.25" spans="1:12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="93.75" spans="1:12">
       <c r="A8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="131.25" spans="1:12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="93.75" spans="1:12">
       <c r="A9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="131.25" spans="1:12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="93.75" spans="1:12">
       <c r="A10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="131.25" spans="1:12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="93.75" spans="1:12">
       <c r="A11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="187.5" spans="1:12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="131.25" spans="1:12">
       <c r="A12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="187.5" spans="1:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="131.25" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="187.5" spans="1:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="150" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="187.5" spans="1:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="131.25" spans="1:12">
       <c r="A15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="337.5" spans="1:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="281.25" spans="1:12">
       <c r="A16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="8"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="168.75" spans="1:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="131.25" spans="1:12">
       <c r="A17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="8"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="168.75" spans="1:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="150" spans="1:12">
       <c r="A18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="131.25" spans="1:12">
+      <c r="A19" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="150" spans="1:12">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10" t="s">
-        <v>91</v>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="150" spans="1:12">
       <c r="A20" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10" t="s">
-        <v>91</v>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="150" spans="1:12">
       <c r="A21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10" t="s">
-        <v>91</v>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="150" spans="1:12">
       <c r="A22" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10" t="s">
-        <v>91</v>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="206.25" spans="1:12">
       <c r="A23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10" t="s">
-        <v>91</v>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="131.25" spans="1:12">
       <c r="A24" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10" t="s">
-        <v>91</v>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="25" ht="150" spans="1:12">
       <c r="A25" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="8"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" ht="75" spans="1:12">
       <c r="A26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3507,563 +4023,563 @@
   <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.8095238095238" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.7142857142857" style="7" customWidth="1"/>
-    <col min="3" max="3" width="38.152380952381" style="7" customWidth="1"/>
-    <col min="4" max="4" width="37.9523809523809" style="7" customWidth="1"/>
-    <col min="5" max="5" width="41.6285714285714" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.6285714285714" style="7" customWidth="1"/>
-    <col min="7" max="7" width="37.1428571428571" style="7" customWidth="1"/>
-    <col min="8" max="11" width="9.14285714285714" style="7" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.14285714285714" style="7"/>
+    <col min="1" max="1" width="10.8095238095238" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.7142857142857" style="6" customWidth="1"/>
+    <col min="3" max="3" width="38.152380952381" style="6" customWidth="1"/>
+    <col min="4" max="4" width="37.9523809523809" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.6285714285714" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21.6285714285714" style="6" customWidth="1"/>
+    <col min="7" max="7" width="37.1428571428571" style="6" customWidth="1"/>
+    <col min="8" max="11" width="9.14285714285714" style="6" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="56.25" spans="1:12">
       <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="75" spans="1:12">
       <c r="A2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="8"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:12">
       <c r="A3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="75" spans="1:12">
       <c r="A4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="75" spans="1:12">
       <c r="A5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="75" spans="1:12">
       <c r="A6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="75" spans="1:12">
       <c r="A7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="112.5" spans="1:12">
       <c r="A8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="150" spans="1:12">
       <c r="A9" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="112.5" spans="1:12">
       <c r="A10" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="112.5" spans="1:12">
       <c r="A11" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="112.5" spans="1:12">
       <c r="A12" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="112.5" spans="1:12">
       <c r="A13" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="112.5" spans="1:12">
       <c r="A14" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="112.5" spans="1:12">
       <c r="A15" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="93.75" spans="1:12">
       <c r="A16" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="93.75" spans="1:12">
       <c r="A17" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="93.75" spans="1:12">
       <c r="A18" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4094,20 +4610,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="2"/>
     <col min="2" max="2" width="18.3619047619048" style="2" customWidth="1"/>
     <col min="3" max="3" width="35.2952380952381" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.1047619047619" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.352380952381" style="2" customWidth="1"/>
     <col min="5" max="5" width="41.247619047619" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.752380952381" style="2" customWidth="1"/>
     <col min="7" max="7" width="38.9714285714286" style="2" customWidth="1"/>
@@ -4118,160 +4634,1338 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="56.25" spans="1:12">
       <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="131.25" spans="1:12">
       <c r="A2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="93.75" spans="1:12">
       <c r="A3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="112.5" spans="1:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="131.25" spans="1:12">
       <c r="A4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" ht="168.75" spans="1:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="131.25" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>254</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+        <v>202</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="187.5" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" ht="168.75" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" ht="168.75" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" ht="168.75" spans="1:12">
+      <c r="A9" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" ht="168.75" spans="1:12">
+      <c r="A10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" ht="168.75" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" ht="168.75" spans="1:12">
+      <c r="A12" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" ht="168.75" spans="1:12">
+      <c r="A13" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" ht="168.75" spans="1:12">
+      <c r="A14" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" ht="168.75" spans="1:12">
+      <c r="A15" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" ht="168.75" spans="1:12">
+      <c r="A16" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" ht="168.75" spans="1:12">
+      <c r="A17" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" ht="168.75" spans="1:12">
+      <c r="A18" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" ht="168.75" spans="1:12">
+      <c r="A19" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" ht="168.75" spans="1:12">
+      <c r="A20" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" ht="168.75" spans="1:12">
+      <c r="A21" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" ht="168.75" spans="1:12">
+      <c r="A22" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" ht="225" spans="1:12">
+      <c r="A23" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" ht="206.25" spans="1:12">
+      <c r="A24" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9.14285714285714" style="2"/>
+    <col min="2" max="2" width="21.952380952381" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.3619047619048" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.4285714285714" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.6" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.8952380952381" style="2" customWidth="1"/>
+    <col min="7" max="7" width="41.247619047619" style="2" customWidth="1"/>
+    <col min="8" max="11" width="9.14285714285714" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="56.25" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="131.25" spans="1:12">
+      <c r="A2" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="191" customHeight="1" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="191" customHeight="1" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="191" customHeight="1" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="112.5" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="112.5" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="112.5" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="168.75" spans="1:12">
+      <c r="A9" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="168.75" spans="1:12">
+      <c r="A10" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="131.25" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="150" spans="1:12">
+      <c r="A12" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="150" spans="1:12">
+      <c r="A13" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="150" spans="1:12">
+      <c r="A14" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="150" spans="1:12">
+      <c r="A15" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="150" spans="1:12">
+      <c r="A16" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="168.75" spans="1:12">
+      <c r="A17" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="112.5" spans="1:12">
+      <c r="A18" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="112.5" spans="1:12">
+      <c r="A19" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
